--- a/Hardware/batteries/battery prices.xlsx
+++ b/Hardware/batteries/battery prices.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steven\Desktop\pixel-props\Hardware\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steven\Desktop\pixel-props\Hardware\batteries\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="71">
   <si>
     <t>Name</t>
   </si>
@@ -233,6 +233,12 @@
   </si>
   <si>
     <t>http://www.hobbyking.com/hobbyking/store/__43968__Turnigy_nano_tech_1200mah_2S_15_25C_Lipo_AIRSOFT_Pack_USA_warehouse_.html</t>
+  </si>
+  <si>
+    <t>http://www.hobbyking.com/hobbyking/store/__37844__Turnigy_nano_tech_1200mAh_2S_25_50C_Lipo_AIRSOFT_Pack.html</t>
+  </si>
+  <si>
+    <t>http://www.hobbyking.com/hobbyking/store/__17287__Turnigy_nano_tech_1300mah_2S_25_50C_Lipo_AIRSOFT_Pack.html</t>
   </si>
 </sst>
 </file>
@@ -240,7 +246,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="172" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -283,7 +289,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -863,10 +869,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1009,7 +1015,7 @@
         <v>15</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D17" si="0">C4*B4/1000</f>
+        <f t="shared" ref="D4:D14" si="0">C4*B4/1000</f>
         <v>18</v>
       </c>
       <c r="E4">
@@ -1031,7 +1037,7 @@
         <v>6</v>
       </c>
       <c r="K4" s="2">
-        <f t="shared" ref="K4:K17" si="1">SQRT(I4^2+J4^2)</f>
+        <f t="shared" ref="K4:K14" si="1">SQRT(I4^2+J4^2)</f>
         <v>20.880613017821101</v>
       </c>
       <c r="L4" t="s">
@@ -1080,331 +1086,408 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B6">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="C6">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D6">
         <f>C6*B6/1000</f>
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E6">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="F6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G6" t="s">
         <v>32</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="I6">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="J6">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="K6" s="2">
         <f>SQRT(I6^2+J6^2)</f>
-        <v>22.135943621178654</v>
-      </c>
-      <c r="L6" t="s">
-        <v>64</v>
+        <v>21.400934559032695</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="B7">
-        <v>2000</v>
+        <v>1300</v>
       </c>
       <c r="C7">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D7">
         <f>C7*B7/1000</f>
-        <v>30</v>
+        <v>32.5</v>
       </c>
       <c r="E7">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="F7">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G7" t="s">
         <v>32</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="I7">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K7" s="2">
         <f>SQRT(I7^2+J7^2)</f>
-        <v>23.259406699226016</v>
-      </c>
-      <c r="L7" t="s">
-        <v>64</v>
+        <v>21.633307652783937</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8">
+        <v>1400</v>
+      </c>
+      <c r="C8">
+        <v>15</v>
+      </c>
+      <c r="D8">
+        <f>C8*B8/1000</f>
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>79</v>
+      </c>
+      <c r="F8">
+        <v>8</v>
+      </c>
+      <c r="G8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8">
+        <v>21</v>
+      </c>
+      <c r="J8">
+        <v>7</v>
+      </c>
+      <c r="K8" s="2">
+        <f>SQRT(I8^2+J8^2)</f>
+        <v>22.135943621178654</v>
+      </c>
+      <c r="L8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9">
+        <v>1000</v>
+      </c>
+      <c r="C9">
+        <v>20</v>
+      </c>
+      <c r="D9">
+        <f>C9*B9/1000</f>
+        <v>20</v>
+      </c>
+      <c r="E9">
+        <v>51</v>
+      </c>
+      <c r="F9">
+        <v>6</v>
+      </c>
+      <c r="G9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I9">
+        <v>20</v>
+      </c>
+      <c r="J9">
+        <v>11</v>
+      </c>
+      <c r="K9" s="2">
+        <f>SQRT(I9^2+J9^2)</f>
+        <v>22.825424421026653</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10">
+        <v>1200</v>
+      </c>
+      <c r="C10">
+        <v>15</v>
+      </c>
+      <c r="D10">
+        <f>C10*B10/1000</f>
+        <v>18</v>
+      </c>
+      <c r="E10">
+        <v>64</v>
+      </c>
+      <c r="F10">
+        <v>6</v>
+      </c>
+      <c r="G10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I10">
+        <v>20</v>
+      </c>
+      <c r="J10">
+        <v>12</v>
+      </c>
+      <c r="K10" s="2">
+        <f>SQRT(I10^2+J10^2)</f>
+        <v>23.323807579381203</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11">
+        <v>2000</v>
+      </c>
+      <c r="C11">
+        <v>15</v>
+      </c>
+      <c r="D11">
+        <f>C11*B11/1000</f>
+        <v>30</v>
+      </c>
+      <c r="E11">
+        <v>109</v>
+      </c>
+      <c r="F11">
+        <v>11</v>
+      </c>
+      <c r="G11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I11">
+        <v>21</v>
+      </c>
+      <c r="J11">
+        <v>10</v>
+      </c>
+      <c r="K11" s="2">
+        <f>SQRT(I11^2+J11^2)</f>
+        <v>23.259406699226016</v>
+      </c>
+      <c r="L11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>36</v>
       </c>
-      <c r="B8">
+      <c r="B12">
         <v>1500</v>
       </c>
-      <c r="C8">
+      <c r="C12">
         <v>20</v>
       </c>
-      <c r="D8">
+      <c r="D12">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="E8">
+      <c r="E12">
         <v>82</v>
       </c>
-      <c r="F8">
+      <c r="F12">
         <v>8</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G12" t="s">
         <v>32</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I8">
+      <c r="I12">
         <v>29</v>
       </c>
-      <c r="J8">
+      <c r="J12">
         <v>7</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K12" s="2">
         <f t="shared" si="1"/>
         <v>29.832867780352597</v>
       </c>
-      <c r="L8" t="s">
+      <c r="L12" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13">
+        <v>1700</v>
+      </c>
+      <c r="C13">
+        <v>30</v>
+      </c>
+      <c r="D13">
+        <f>C13*B13/1000</f>
+        <v>51</v>
+      </c>
+      <c r="E13">
+        <v>82</v>
+      </c>
+      <c r="F13">
+        <v>8</v>
+      </c>
+      <c r="G13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I13">
+        <v>26.5</v>
+      </c>
+      <c r="J13">
+        <v>20</v>
+      </c>
+      <c r="K13" s="2">
+        <f>SQRT(I13^2+J13^2)</f>
+        <v>33.200150602068057</v>
+      </c>
+      <c r="L13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>37</v>
       </c>
-      <c r="B9">
+      <c r="B14">
         <v>1800</v>
       </c>
-      <c r="C9">
+      <c r="C14">
         <v>20</v>
       </c>
-      <c r="D9">
+      <c r="D14">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="E9">
+      <c r="E14">
         <v>103</v>
       </c>
-      <c r="F9">
+      <c r="F14">
         <v>9</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G14" t="s">
         <v>32</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H14" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I9">
+      <c r="I14">
         <v>35</v>
       </c>
-      <c r="J9">
+      <c r="J14">
         <v>7</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K14" s="2">
         <f t="shared" si="1"/>
         <v>35.693136595149497</v>
       </c>
-      <c r="L9" t="s">
+      <c r="L14" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K10" s="2"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>52</v>
-      </c>
-      <c r="K11" s="2"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>53</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K12" s="2"/>
-      <c r="L12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>56</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="K13" s="2"/>
-      <c r="L13" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K14" s="2"/>
-    </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>61</v>
-      </c>
-      <c r="B15">
-        <v>1700</v>
-      </c>
-      <c r="C15">
-        <v>30</v>
-      </c>
-      <c r="D15">
-        <f t="shared" si="0"/>
-        <v>51</v>
-      </c>
-      <c r="E15">
-        <v>82</v>
-      </c>
-      <c r="F15">
-        <v>8</v>
-      </c>
-      <c r="G15" t="s">
-        <v>32</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I15">
-        <v>26.5</v>
-      </c>
-      <c r="J15">
-        <v>20</v>
-      </c>
-      <c r="K15" s="2">
-        <f t="shared" si="1"/>
-        <v>33.200150602068057</v>
-      </c>
-      <c r="L15" t="s">
-        <v>60</v>
-      </c>
+      <c r="K15" s="2"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>62</v>
-      </c>
-      <c r="B16">
-        <v>1000</v>
-      </c>
-      <c r="C16">
-        <v>20</v>
-      </c>
-      <c r="D16">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="E16">
-        <v>51</v>
-      </c>
-      <c r="F16">
-        <v>6</v>
-      </c>
-      <c r="G16" t="s">
-        <v>32</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I16">
-        <v>20</v>
-      </c>
-      <c r="J16">
-        <v>11</v>
-      </c>
-      <c r="K16" s="2">
-        <f t="shared" si="1"/>
-        <v>22.825424421026653</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="K16" s="2"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17">
-        <v>1200</v>
-      </c>
-      <c r="C17">
-        <v>15</v>
-      </c>
-      <c r="D17">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="E17">
-        <v>64</v>
-      </c>
-      <c r="F17">
-        <v>6</v>
-      </c>
-      <c r="G17" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="I17">
-        <v>20</v>
-      </c>
-      <c r="J17">
-        <v>12</v>
-      </c>
-      <c r="K17" s="2">
-        <f t="shared" si="1"/>
-        <v>23.323807579381203</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="K17" s="2"/>
+      <c r="L17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>56</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K18" s="2"/>
+      <c r="L18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K19" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="H3" r:id="rId1"/>
     <hyperlink ref="H4" r:id="rId2"/>
-    <hyperlink ref="H8" r:id="rId3"/>
-    <hyperlink ref="H9" r:id="rId4"/>
+    <hyperlink ref="H12" r:id="rId3"/>
+    <hyperlink ref="H14" r:id="rId4"/>
     <hyperlink ref="H5" r:id="rId5"/>
-    <hyperlink ref="H6" r:id="rId6"/>
-    <hyperlink ref="H7" r:id="rId7"/>
+    <hyperlink ref="H8" r:id="rId6"/>
+    <hyperlink ref="H11" r:id="rId7"/>
     <hyperlink ref="H2" r:id="rId8"/>
-    <hyperlink ref="H12" r:id="rId9"/>
-    <hyperlink ref="H13" r:id="rId10"/>
-    <hyperlink ref="H15" r:id="rId11"/>
-    <hyperlink ref="H16" r:id="rId12"/>
-    <hyperlink ref="H17" r:id="rId13"/>
+    <hyperlink ref="H17" r:id="rId9"/>
+    <hyperlink ref="H18" r:id="rId10"/>
+    <hyperlink ref="H13" r:id="rId11"/>
+    <hyperlink ref="H9" r:id="rId12"/>
+    <hyperlink ref="H10" r:id="rId13"/>
+    <hyperlink ref="H6" r:id="rId14"/>
+    <hyperlink ref="H7" r:id="rId15"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId16"/>
 </worksheet>
 </file>
 
